--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151666.5587060146</v>
+        <v>-152314.91793282</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11517486.19315933</v>
+        <v>11517486.19315932</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099231</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.19202471399027</v>
       </c>
       <c r="V11" t="n">
-        <v>72.40356150710431</v>
+        <v>26.58103226146711</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="X11" t="n">
-        <v>56.66755295935821</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.80690084956993</v>
+        <v>11.80690084956988</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993858</v>
+        <v>18.68115031993852</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143292</v>
+        <v>37.57554633143286</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855318</v>
+        <v>6.556120159855263</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779522</v>
+        <v>13.00701368779516</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452335</v>
+        <v>72.18913543452329</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434131</v>
+        <v>38.01820649434126</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955046</v>
+        <v>11.59021855955041</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608102</v>
+        <v>4.465216522608046</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="H14" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105504016099175</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399033</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>26.5810322614671</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>56.66755295935821</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084956993</v>
+        <v>11.80690084956988</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993858</v>
+        <v>18.68115031993852</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143292</v>
+        <v>37.57554633143286</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855318</v>
+        <v>6.556120159855263</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779522</v>
+        <v>13.00701368779516</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452335</v>
+        <v>72.18913543452329</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434131</v>
+        <v>38.01820649434126</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955046</v>
+        <v>11.59021855955041</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608102</v>
+        <v>4.465216522608046</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293036</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045745</v>
+        <v>17.42869145045734</v>
       </c>
       <c r="D17" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132742</v>
       </c>
       <c r="E17" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171157</v>
       </c>
       <c r="F17" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116122</v>
       </c>
       <c r="G17" t="n">
-        <v>67.0311451400912</v>
+        <v>67.0311451400913</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862797</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791987</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550337</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.8896413429302</v>
+        <v>34.88964134293036</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045745</v>
+        <v>17.42869145045734</v>
       </c>
       <c r="D20" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132742</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171157</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116122</v>
       </c>
       <c r="G20" t="n">
-        <v>67.03114514009144</v>
+        <v>67.03114514009133</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862797</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791882</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550337</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293036</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045745</v>
+        <v>17.42869145045734</v>
       </c>
       <c r="D23" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132742</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171157</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116122</v>
       </c>
       <c r="G23" t="n">
-        <v>67.03114514009144</v>
+        <v>67.03114514009133</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862797</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791882</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550337</v>
       </c>
     </row>
     <row r="24">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695997</v>
       </c>
       <c r="U28" t="n">
         <v>65.08363141842413</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C29" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D29" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266753</v>
       </c>
       <c r="F29" t="n">
         <v>185.6511048961255</v>
@@ -2807,7 +2807,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.08652069789107</v>
+        <v>30.08652069789111</v>
       </c>
       <c r="V29" t="n">
         <v>106.527317624549</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V30" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W30" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695968</v>
+        <v>5.901509671695997</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V31" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W31" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X31" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C32" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E32" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F32" t="n">
         <v>185.6511048961255</v>
@@ -3044,7 +3044,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.0865206978911</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V32" t="n">
         <v>106.527317624549</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470715</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383936</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W33" t="n">
-        <v>30.4700423153337</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695969</v>
       </c>
       <c r="U34" t="n">
-        <v>65.08363141842413</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V34" t="n">
-        <v>30.9127024782421</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W34" t="n">
-        <v>65.2980574910051</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451247</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493575</v>
+        <v>6.671208906493579</v>
       </c>
       <c r="V35" t="n">
         <v>83.11200583315147</v>
@@ -3503,22 +3503,22 @@
         <v>138.0935890264971</v>
       </c>
       <c r="C38" t="n">
-        <v>120.632639134024</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0427889836994</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E38" t="n">
         <v>137.2901174352783</v>
       </c>
       <c r="F38" t="n">
-        <v>162.2357931047279</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G38" t="n">
-        <v>170.235092823658</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070174</v>
+        <v>90.45752060070183</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.67120890649349</v>
+        <v>6.671208906493575</v>
       </c>
       <c r="V38" t="n">
-        <v>83.11200583315139</v>
+        <v>83.11200583315147</v>
       </c>
       <c r="W38" t="n">
-        <v>104.6007160804295</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X38" t="n">
-        <v>125.0908480414855</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.5976860190701</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.054730523936087</v>
+        <v>7.054730523936172</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702652</v>
+        <v>41.66831962702661</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844483</v>
+        <v>7.497390686844568</v>
       </c>
       <c r="W40" t="n">
-        <v>41.88274569960748</v>
+        <v>41.88274569960757</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.0935890264971</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C41" t="n">
-        <v>120.6326391340241</v>
+        <v>120.6326391340242</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0427889836995</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E41" t="n">
-        <v>137.2901174352783</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F41" t="n">
-        <v>162.235793104728</v>
+        <v>162.2357931047281</v>
       </c>
       <c r="G41" t="n">
         <v>170.2350928236581</v>
       </c>
       <c r="H41" t="n">
-        <v>90.45752060070183</v>
+        <v>90.45752060070188</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493579</v>
+        <v>6.671208906493636</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11200583315147</v>
+        <v>83.11200583315153</v>
       </c>
       <c r="W41" t="n">
         <v>104.6007160804296</v>
       </c>
       <c r="X41" t="n">
-        <v>125.0908480414856</v>
+        <v>125.0908480414857</v>
       </c>
       <c r="Y41" t="n">
         <v>141.5976860190702</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.054730523936172</v>
+        <v>7.054730523936229</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702661</v>
+        <v>41.66831962702666</v>
       </c>
       <c r="V43" t="n">
-        <v>7.497390686844568</v>
+        <v>7.497390686844625</v>
       </c>
       <c r="W43" t="n">
-        <v>41.88274569960757</v>
+        <v>41.88274569960763</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.0935890264971</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C44" t="n">
-        <v>120.6326391340241</v>
+        <v>120.6326391340242</v>
       </c>
       <c r="D44" t="n">
-        <v>110.0427889836995</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E44" t="n">
-        <v>137.2901174352783</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F44" t="n">
-        <v>162.235793104728</v>
+        <v>162.2357931047281</v>
       </c>
       <c r="G44" t="n">
         <v>170.2350928236581</v>
       </c>
       <c r="H44" t="n">
-        <v>90.45752060070183</v>
+        <v>90.45752060070188</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493579</v>
+        <v>6.671208906493636</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11200583315147</v>
+        <v>83.11200583315153</v>
       </c>
       <c r="W44" t="n">
         <v>104.6007160804296</v>
       </c>
       <c r="X44" t="n">
-        <v>125.0908480414856</v>
+        <v>125.0908480414857</v>
       </c>
       <c r="Y44" t="n">
         <v>141.5976860190702</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.054730523936172</v>
+        <v>7.054730523936229</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702661</v>
+        <v>41.66831962702666</v>
       </c>
       <c r="V46" t="n">
-        <v>7.497390686844568</v>
+        <v>7.497390686844625</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88274569960757</v>
+        <v>41.88274569960763</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G11" t="n">
-        <v>78.92719553380503</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H11" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I11" t="n">
-        <v>25.71165856611161</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="J11" t="n">
-        <v>25.71165856611161</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="K11" t="n">
-        <v>25.71165856611161</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="L11" t="n">
-        <v>25.71165856611161</v>
+        <v>85.89785830800071</v>
       </c>
       <c r="M11" t="n">
-        <v>25.71165856611161</v>
+        <v>85.89785830800071</v>
       </c>
       <c r="N11" t="n">
-        <v>68.19547183903128</v>
+        <v>146.2551942443506</v>
       </c>
       <c r="O11" t="n">
-        <v>68.19547183903128</v>
+        <v>146.2551942443506</v>
       </c>
       <c r="P11" t="n">
-        <v>139.8749977310646</v>
+        <v>217.9347201363838</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.2445420882214</v>
+        <v>289.614246028417</v>
       </c>
       <c r="R11" t="n">
-        <v>274.9240679802547</v>
+        <v>289.614246028417</v>
       </c>
       <c r="S11" t="n">
-        <v>289.6142460284173</v>
+        <v>289.614246028417</v>
       </c>
       <c r="T11" t="n">
-        <v>282.4369692444786</v>
+        <v>289.614246028417</v>
       </c>
       <c r="U11" t="n">
-        <v>282.4369692444786</v>
+        <v>252.0465442971137</v>
       </c>
       <c r="V11" t="n">
-        <v>209.3020586312419</v>
+        <v>225.1970167602782</v>
       </c>
       <c r="W11" t="n">
-        <v>209.3020586312419</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="X11" t="n">
-        <v>152.0621061470417</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="Y11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.40764567197797</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="C12" t="n">
-        <v>22.40764567197797</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="D12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="E12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="F12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="G12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="H12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="I12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="J12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="K12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="L12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="M12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="N12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="O12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="P12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="R12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="S12" t="n">
-        <v>59.81572930011306</v>
+        <v>61.25504921005211</v>
       </c>
       <c r="T12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="U12" t="n">
-        <v>62.61723103306481</v>
+        <v>62.6172310330647</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504604</v>
+        <v>43.74738222504598</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X12" t="n">
-        <v>14.05527203031747</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.40764567197797</v>
+        <v>14.1446585622289</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.73686700164224</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C13" t="n">
-        <v>39.73686700164224</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D13" t="n">
-        <v>39.73686700164224</v>
+        <v>48.5677588466144</v>
       </c>
       <c r="E13" t="n">
-        <v>106.7454864427306</v>
+        <v>48.5677588466144</v>
       </c>
       <c r="F13" t="n">
-        <v>162.4361328899498</v>
+        <v>116.5791637651043</v>
       </c>
       <c r="G13" t="n">
-        <v>162.4361328899498</v>
+        <v>162.4361328899494</v>
       </c>
       <c r="H13" t="n">
-        <v>162.4361328899498</v>
+        <v>162.4361328899494</v>
       </c>
       <c r="I13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="J13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="K13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="L13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="M13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="N13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="O13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="P13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="S13" t="n">
-        <v>219.6037517952378</v>
+        <v>219.6037517952375</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307982</v>
+        <v>206.4653541307979</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5470355100675</v>
+        <v>133.5470355100673</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790459</v>
+        <v>95.14480672790441</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466791</v>
+        <v>22.00989611466779</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037451</v>
+        <v>10.30260464037445</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>152.0621061470417</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="C14" t="n">
-        <v>152.0621061470417</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="D14" t="n">
-        <v>152.0621061470417</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="E14" t="n">
-        <v>152.0621061470417</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="F14" t="n">
-        <v>152.0621061470417</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="G14" t="n">
-        <v>78.92719553380503</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="H14" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I14" t="n">
-        <v>25.71165856611161</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="J14" t="n">
-        <v>49.79348482626496</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="K14" t="n">
-        <v>121.4730107182982</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="L14" t="n">
-        <v>193.1525366103315</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="M14" t="n">
-        <v>193.1525366103315</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="N14" t="n">
-        <v>193.1525366103315</v>
+        <v>25.71165856611165</v>
       </c>
       <c r="O14" t="n">
-        <v>203.2445420882214</v>
+        <v>59.88549030415476</v>
       </c>
       <c r="P14" t="n">
-        <v>203.2445420882214</v>
+        <v>131.565016196188</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.2445420882214</v>
+        <v>203.2445420882212</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802547</v>
+        <v>274.9240679802544</v>
       </c>
       <c r="S14" t="n">
-        <v>289.6142460284173</v>
+        <v>289.614246028417</v>
       </c>
       <c r="T14" t="n">
-        <v>289.6142460284173</v>
+        <v>282.4369692444784</v>
       </c>
       <c r="U14" t="n">
-        <v>252.0465442971139</v>
+        <v>282.4369692444784</v>
       </c>
       <c r="V14" t="n">
-        <v>252.0465442971139</v>
+        <v>282.4369692444784</v>
       </c>
       <c r="W14" t="n">
-        <v>178.9116336838772</v>
+        <v>282.4369692444784</v>
       </c>
       <c r="X14" t="n">
-        <v>152.0621061470417</v>
+        <v>209.3020586312418</v>
       </c>
       <c r="Y14" t="n">
-        <v>152.0621061470417</v>
+        <v>152.0621061470416</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I15" t="n">
-        <v>5.792284920568346</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="J15" t="n">
-        <v>5.792284920568346</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="K15" t="n">
-        <v>5.792284920568346</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="L15" t="n">
-        <v>5.792284920568346</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="M15" t="n">
-        <v>5.792284920568346</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="N15" t="n">
-        <v>5.792284920568346</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="O15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="P15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="R15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="S15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306481</v>
+        <v>62.6172310330647</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504604</v>
+        <v>43.74738222504598</v>
       </c>
       <c r="W15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C16" t="n">
-        <v>52.19617449411861</v>
+        <v>52.19617449411867</v>
       </c>
       <c r="D16" t="n">
-        <v>117.0450986672802</v>
+        <v>82.31660997325744</v>
       </c>
       <c r="E16" t="n">
-        <v>117.0450986672802</v>
+        <v>82.31660997325744</v>
       </c>
       <c r="F16" t="n">
-        <v>117.0450986672802</v>
+        <v>82.31660997325744</v>
       </c>
       <c r="G16" t="n">
-        <v>162.9020677921252</v>
+        <v>128.1735790981025</v>
       </c>
       <c r="H16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="I16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="K16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="L16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="M16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="N16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="O16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="P16" t="n">
-        <v>162.9020677921252</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="Q16" t="n">
-        <v>181.2343817905637</v>
+        <v>181.2343817905633</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952378</v>
+        <v>219.6037517952375</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307982</v>
+        <v>206.4653541307979</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100675</v>
+        <v>133.5470355100673</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790459</v>
+        <v>95.14480672790441</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466791</v>
+        <v>22.00989611466779</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037451</v>
+        <v>10.30260464037445</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635526</v>
+        <v>192.0717728635525</v>
       </c>
       <c r="C17" t="n">
         <v>174.4670340247067</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195219</v>
+        <v>167.559113519522</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228435</v>
+        <v>133.1286390228437</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480188</v>
+        <v>73.50051233480197</v>
       </c>
       <c r="G17" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="I17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="J17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="K17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="L17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="M17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="N17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="O17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="P17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="R17" t="n">
-        <v>54.68464592040641</v>
+        <v>54.68464592040624</v>
       </c>
       <c r="S17" t="n">
-        <v>126.3641718124397</v>
+        <v>126.3641718124395</v>
       </c>
       <c r="T17" t="n">
-        <v>198.0436977044729</v>
+        <v>198.0436977044727</v>
       </c>
       <c r="U17" t="n">
-        <v>269.7232235965062</v>
+        <v>269.7232235965059</v>
       </c>
       <c r="V17" t="n">
-        <v>289.6142460284173</v>
+        <v>289.614246028417</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598689</v>
+        <v>288.2033688598688</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0953887003548</v>
+        <v>266.0953887003542</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261086</v>
+        <v>227.3138348261084</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.071772863553</v>
+        <v>192.0717728635531</v>
       </c>
       <c r="C20" t="n">
-        <v>174.4670340247071</v>
+        <v>174.4670340247073</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195224</v>
+        <v>167.5591135195219</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228439</v>
+        <v>133.1286390228435</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480212</v>
+        <v>73.500512334802</v>
       </c>
       <c r="G20" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H20" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="I20" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="J20" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="K20" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="L20" t="n">
-        <v>90.09077362463781</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="M20" t="n">
-        <v>161.7702995166711</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="N20" t="n">
-        <v>161.7702995166711</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="O20" t="n">
-        <v>161.7702995166711</v>
+        <v>90.09077362463785</v>
       </c>
       <c r="P20" t="n">
-        <v>161.7702995166711</v>
+        <v>90.09077362463785</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.7702995166711</v>
+        <v>90.09077362463785</v>
       </c>
       <c r="R20" t="n">
-        <v>198.0436977044729</v>
+        <v>146.2551942443506</v>
       </c>
       <c r="S20" t="n">
-        <v>198.0436977044729</v>
+        <v>146.2551942443506</v>
       </c>
       <c r="T20" t="n">
-        <v>198.0436977044729</v>
+        <v>217.9347201363838</v>
       </c>
       <c r="U20" t="n">
-        <v>269.7232235965062</v>
+        <v>289.614246028417</v>
       </c>
       <c r="V20" t="n">
-        <v>289.6142460284173</v>
+        <v>289.614246028417</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598689</v>
+        <v>288.2033688598688</v>
       </c>
       <c r="X20" t="n">
         <v>266.0953887003548</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261088</v>
+        <v>227.313834826109</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635529</v>
+        <v>192.071772863553</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247072</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195222</v>
+        <v>167.5591135195226</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228437</v>
+        <v>133.1286390228443</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480212</v>
+        <v>73.500512334802</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H23" t="n">
-        <v>18.41124773260454</v>
+        <v>18.41124773260464</v>
       </c>
       <c r="I23" t="n">
-        <v>18.41124773260454</v>
+        <v>90.09077362463785</v>
       </c>
       <c r="J23" t="n">
-        <v>18.41124773260454</v>
+        <v>90.09077362463785</v>
       </c>
       <c r="K23" t="n">
-        <v>18.41124773260454</v>
+        <v>90.09077362463785</v>
       </c>
       <c r="L23" t="n">
-        <v>90.09077362463781</v>
+        <v>90.09077362463785</v>
       </c>
       <c r="M23" t="n">
+        <v>90.09077362463785</v>
+      </c>
+      <c r="N23" t="n">
         <v>161.7702995166711</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
+        <v>161.7702995166711</v>
+      </c>
+      <c r="P23" t="n">
+        <v>161.7702995166711</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>161.7702995166711</v>
+      </c>
+      <c r="R23" t="n">
+        <v>161.7702995166711</v>
+      </c>
+      <c r="S23" t="n">
         <v>233.4498254087043</v>
       </c>
-      <c r="O23" t="n">
-        <v>269.7232235965062</v>
-      </c>
-      <c r="P23" t="n">
-        <v>269.7232235965062</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>269.7232235965062</v>
-      </c>
-      <c r="R23" t="n">
-        <v>269.7232235965062</v>
-      </c>
-      <c r="S23" t="n">
-        <v>269.7232235965062</v>
-      </c>
       <c r="T23" t="n">
-        <v>269.7232235965062</v>
+        <v>269.7232235965059</v>
       </c>
       <c r="U23" t="n">
-        <v>269.7232235965062</v>
+        <v>269.7232235965059</v>
       </c>
       <c r="V23" t="n">
-        <v>289.6142460284173</v>
+        <v>289.614246028417</v>
       </c>
       <c r="W23" t="n">
-        <v>288.2033688598689</v>
+        <v>288.2033688598688</v>
       </c>
       <c r="X23" t="n">
         <v>266.0953887003548</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261088</v>
+        <v>227.3138348261089</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339778</v>
       </c>
       <c r="C26" t="n">
         <v>829.7381874012286</v>
@@ -6221,28 +6221,28 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.40123032063604</v>
+        <v>61.40123032063603</v>
       </c>
       <c r="J26" t="n">
         <v>304.4957480179194</v>
       </c>
       <c r="K26" t="n">
-        <v>304.4957480179194</v>
+        <v>359.4417002517825</v>
       </c>
       <c r="L26" t="n">
-        <v>615.7924373180292</v>
+        <v>755.4322234765051</v>
       </c>
       <c r="M26" t="n">
-        <v>681.0581998978608</v>
+        <v>820.6979860563367</v>
       </c>
       <c r="N26" t="n">
-        <v>758.6076422517779</v>
+        <v>1246.984656333374</v>
       </c>
       <c r="O26" t="n">
-        <v>979.0932378857576</v>
+        <v>1452.91982692506</v>
       </c>
       <c r="P26" t="n">
-        <v>1348.610901174414</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="Q26" t="n">
         <v>1603.424798776587</v>
@@ -6263,7 +6263,7 @@
         <v>1584.376608874455</v>
       </c>
       <c r="W26" t="n">
-        <v>1455.067489812003</v>
+        <v>1455.067489812004</v>
       </c>
       <c r="X26" t="n">
         <v>1305.061267758586</v>
@@ -6288,43 +6288,43 @@
         <v>34.44740769915455</v>
       </c>
       <c r="E27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="R27" t="n">
         <v>81.66668593414828</v>
@@ -6367,37 +6367,37 @@
         <v>34.44740769915455</v>
       </c>
       <c r="E28" t="n">
-        <v>76.94250778888627</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F28" t="n">
-        <v>76.94250778888627</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G28" t="n">
-        <v>76.94250778888627</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H28" t="n">
-        <v>137.0377594572852</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I28" t="n">
-        <v>207.8621709343248</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J28" t="n">
-        <v>207.8621709343248</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K28" t="n">
-        <v>207.8621709343248</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L28" t="n">
-        <v>207.8621709343248</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M28" t="n">
-        <v>207.8621709343248</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N28" t="n">
-        <v>207.8621709343248</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O28" t="n">
-        <v>207.8621709343248</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P28" t="n">
         <v>207.8621709343248</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339781</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012291</v>
+        <v>829.7381874012283</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9320250021411</v>
+        <v>694.9320250021403</v>
       </c>
       <c r="E29" t="n">
-        <v>532.6033086115594</v>
+        <v>532.603308611559</v>
       </c>
       <c r="F29" t="n">
-        <v>345.0769400296144</v>
+        <v>345.076940029614</v>
       </c>
       <c r="G29" t="n">
         <v>149.4704707214771</v>
@@ -6458,34 +6458,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063607</v>
+        <v>61.40123032063603</v>
       </c>
       <c r="J29" t="n">
-        <v>304.4957480179195</v>
+        <v>304.4957480179194</v>
       </c>
       <c r="K29" t="n">
-        <v>559.7941451576213</v>
+        <v>359.4417002517825</v>
       </c>
       <c r="L29" t="n">
-        <v>559.7941451576213</v>
+        <v>606.2887667595344</v>
       </c>
       <c r="M29" t="n">
-        <v>625.0599077374529</v>
+        <v>1032.575437036572</v>
       </c>
       <c r="N29" t="n">
-        <v>968.608247855528</v>
+        <v>1458.86210731361</v>
       </c>
       <c r="O29" t="n">
-        <v>1394.894918132566</v>
+        <v>1521.368214934601</v>
       </c>
       <c r="P29" t="n">
-        <v>1445.831860331455</v>
+        <v>1677.748328108861</v>
       </c>
       <c r="Q29" t="n">
-        <v>1700.645757933627</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="R29" t="n">
-        <v>1700.645757933627</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="S29" t="n">
         <v>1722.370384957728</v>
@@ -6549,34 +6549,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="M30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U30" t="n">
-        <v>76.91780024377375</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V30" t="n">
-        <v>65.22522821969362</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W30" t="n">
         <v>34.44740769915455</v>
@@ -6625,40 +6625,40 @@
         <v>34.44740769915455</v>
       </c>
       <c r="L31" t="n">
-        <v>34.44740769915455</v>
+        <v>67.49583558070157</v>
       </c>
       <c r="M31" t="n">
-        <v>135.1273210534255</v>
+        <v>136.4352953047159</v>
       </c>
       <c r="N31" t="n">
-        <v>207.8621709343247</v>
+        <v>136.4352953047159</v>
       </c>
       <c r="O31" t="n">
-        <v>207.8621709343247</v>
+        <v>187.6014061318267</v>
       </c>
       <c r="P31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T31" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U31" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V31" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W31" t="n">
-        <v>38.97742238950932</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X31" t="n">
         <v>34.44740769915455</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339772</v>
+        <v>975.2411681339781</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012281</v>
+        <v>829.7381874012291</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021401</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E32" t="n">
-        <v>532.6033086115585</v>
+        <v>532.6033086115594</v>
       </c>
       <c r="F32" t="n">
-        <v>345.0769400296135</v>
+        <v>345.0769400296144</v>
       </c>
       <c r="G32" t="n">
         <v>149.4704707214771</v>
@@ -6695,31 +6695,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>34.44740769915455</v>
+        <v>61.40123032063606</v>
       </c>
       <c r="J32" t="n">
-        <v>277.5419253964379</v>
+        <v>85.48305658078939</v>
       </c>
       <c r="K32" t="n">
-        <v>332.4878776303011</v>
+        <v>425.457907537138</v>
       </c>
       <c r="L32" t="n">
-        <v>384.863033170237</v>
+        <v>851.7445778141756</v>
       </c>
       <c r="M32" t="n">
-        <v>450.1287957500687</v>
+        <v>851.7445778141756</v>
       </c>
       <c r="N32" t="n">
-        <v>869.0402182028905</v>
+        <v>1235.167851354534</v>
       </c>
       <c r="O32" t="n">
-        <v>1295.326888479928</v>
+        <v>1297.673958975525</v>
       </c>
       <c r="P32" t="n">
-        <v>1445.831860331455</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="Q32" t="n">
-        <v>1700.645757933627</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R32" t="n">
         <v>1700.645757933627</v>
@@ -6743,7 +6743,7 @@
         <v>1305.061267758586</v>
       </c>
       <c r="Y32" t="n">
-        <v>1138.381471990436</v>
+        <v>1138.381471990437</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="L33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="M33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="N33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="O33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="P33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377381</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969365</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W33" t="n">
         <v>34.44740769915455</v>
@@ -6856,46 +6856,46 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J34" t="n">
-        <v>34.44740769915455</v>
+        <v>174.4531041776624</v>
       </c>
       <c r="K34" t="n">
-        <v>34.44740769915455</v>
+        <v>174.4531041776624</v>
       </c>
       <c r="L34" t="n">
-        <v>34.44740769915455</v>
+        <v>174.4531041776624</v>
       </c>
       <c r="M34" t="n">
-        <v>34.44740769915455</v>
+        <v>174.4531041776624</v>
       </c>
       <c r="N34" t="n">
-        <v>207.8621709343248</v>
+        <v>174.4531041776624</v>
       </c>
       <c r="O34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="P34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538238</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U34" t="n">
-        <v>136.1600082170318</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V34" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950935</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X34" t="n">
         <v>34.44740769915455</v>
@@ -6920,10 +6920,10 @@
         <v>594.5324197122893</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140284</v>
+        <v>455.8555334140283</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9809949244041</v>
+        <v>291.980994924404</v>
       </c>
       <c r="G35" t="n">
         <v>120.0263557085881</v>
@@ -6935,28 +6935,28 @@
         <v>78.79010407355125</v>
       </c>
       <c r="J35" t="n">
-        <v>294.936692528932</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="K35" t="n">
-        <v>294.936692528932</v>
+        <v>156.9172149808979</v>
       </c>
       <c r="L35" t="n">
-        <v>370.4930067423514</v>
+        <v>511.5243593659023</v>
       </c>
       <c r="M35" t="n">
-        <v>458.9399279956666</v>
+        <v>599.9712806192174</v>
       </c>
       <c r="N35" t="n">
-        <v>549.5128715814383</v>
+        <v>690.544224204989</v>
       </c>
       <c r="O35" t="n">
-        <v>635.2001378759137</v>
+        <v>957.2131752539431</v>
       </c>
       <c r="P35" t="n">
-        <v>989.8072822609181</v>
+        <v>1031.331276126316</v>
       </c>
       <c r="Q35" t="n">
-        <v>1244.267076727719</v>
+        <v>1309.326332401971</v>
       </c>
       <c r="R35" t="n">
         <v>1364.669194558243</v>
@@ -7002,34 +7002,34 @@
         <v>28.65512277858621</v>
       </c>
       <c r="F36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P36" t="n">
         <v>35.78111320680457</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G37" t="n">
-        <v>120.6232601659385</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="I37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="J37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="K37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="L37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="M37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="N37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="O37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="P37" t="n">
         <v>120.6232601659385</v>
@@ -7135,10 +7135,10 @@
         <v>28.65512277858621</v>
       </c>
       <c r="X37" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.19145734609279</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594853</v>
+        <v>827.5379026594856</v>
       </c>
       <c r="C38" t="n">
-        <v>705.6867520190571</v>
+        <v>705.6867520190572</v>
       </c>
       <c r="D38" t="n">
-        <v>594.5324197122899</v>
+        <v>594.53241971229</v>
       </c>
       <c r="E38" t="n">
         <v>455.855533414029</v>
       </c>
       <c r="F38" t="n">
-        <v>291.9809949244049</v>
+        <v>291.9809949244047</v>
       </c>
       <c r="G38" t="n">
-        <v>120.026355708588</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H38" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355133</v>
+        <v>78.79010407355126</v>
       </c>
       <c r="J38" t="n">
-        <v>177.6601314239653</v>
+        <v>78.79010407355126</v>
       </c>
       <c r="K38" t="n">
-        <v>521.4016756722791</v>
+        <v>156.9172149808979</v>
       </c>
       <c r="L38" t="n">
-        <v>596.9579898856987</v>
+        <v>232.4735291943174</v>
       </c>
       <c r="M38" t="n">
-        <v>685.404911139014</v>
+        <v>320.9204504476326</v>
       </c>
       <c r="N38" t="n">
-        <v>806.4666532852144</v>
+        <v>411.4933940334042</v>
       </c>
       <c r="O38" t="n">
-        <v>892.15391957969</v>
+        <v>732.0669938975832</v>
       </c>
       <c r="P38" t="n">
-        <v>966.2720204520625</v>
+        <v>1086.674138282588</v>
       </c>
       <c r="Q38" t="n">
-        <v>1244.267076727718</v>
+        <v>1364.669194558244</v>
       </c>
       <c r="R38" t="n">
-        <v>1364.669194558242</v>
+        <v>1364.669194558244</v>
       </c>
       <c r="S38" t="n">
-        <v>1409.574980255827</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T38" t="n">
         <v>1432.756138929311</v>
@@ -7208,7 +7208,7 @@
         <v>1426.017544074267</v>
       </c>
       <c r="V38" t="n">
-        <v>1342.066023030679</v>
+        <v>1342.06602303068</v>
       </c>
       <c r="W38" t="n">
         <v>1236.408734060549</v>
@@ -7217,7 +7217,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.0263764236238</v>
+        <v>967.026376423624</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="D39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="E39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="F39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="G39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="H39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="I39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="J39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="K39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="L39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="M39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="N39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="O39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="P39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="R39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="S39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="T39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="U39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680448</v>
+        <v>35.78111320680458</v>
       </c>
       <c r="W39" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X39" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.41593891602885</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C40" t="n">
-        <v>45.41593891602885</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="D40" t="n">
-        <v>45.41593891602885</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="F40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="G40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="H40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="I40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="J40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="K40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="L40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="M40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="N40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="O40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="P40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.41593891602885</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="R40" t="n">
-        <v>120.6232601659382</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659382</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659382</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146699</v>
+        <v>78.53404842146718</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556347</v>
+        <v>70.96092651556357</v>
       </c>
       <c r="W40" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X40" t="n">
-        <v>45.41593891602885</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.41593891602885</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594846</v>
+        <v>827.5379026594852</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190563</v>
+        <v>705.6867520190567</v>
       </c>
       <c r="D41" t="n">
-        <v>594.5324197122891</v>
+        <v>594.5324197122895</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8555334140283</v>
+        <v>455.8555334140287</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244041</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G41" t="n">
         <v>120.0263557085881</v>
       </c>
       <c r="H41" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355121</v>
       </c>
       <c r="J41" t="n">
-        <v>218.8200358219982</v>
+        <v>345.0657804443181</v>
       </c>
       <c r="K41" t="n">
-        <v>296.9471467293449</v>
+        <v>423.1928913516648</v>
       </c>
       <c r="L41" t="n">
-        <v>372.5034609427644</v>
+        <v>773.9914376987695</v>
       </c>
       <c r="M41" t="n">
-        <v>727.1106053277688</v>
+        <v>1065.262906999375</v>
       </c>
       <c r="N41" t="n">
-        <v>1081.717749712773</v>
+        <v>1155.835850585147</v>
       </c>
       <c r="O41" t="n">
-        <v>1167.405016007249</v>
+        <v>1241.523116879622</v>
       </c>
       <c r="P41" t="n">
-        <v>1241.523116879621</v>
+        <v>1241.523116879622</v>
       </c>
       <c r="Q41" t="n">
-        <v>1309.326332401971</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R41" t="n">
-        <v>1364.669194558243</v>
+        <v>1364.669194558244</v>
       </c>
       <c r="S41" t="n">
-        <v>1409.574980255827</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T41" t="n">
         <v>1432.756138929311</v>
       </c>
       <c r="U41" t="n">
-        <v>1426.017544074266</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V41" t="n">
-        <v>1342.066023030679</v>
+        <v>1342.06602303068</v>
       </c>
       <c r="W41" t="n">
-        <v>1236.408734060548</v>
+        <v>1236.408734060549</v>
       </c>
       <c r="X41" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236231</v>
+        <v>967.0263764236238</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="D42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="F42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="G42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="H42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="J42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="K42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="L42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="M42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="N42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="O42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="P42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="R42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="W42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C43" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="D43" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E43" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="F43" t="n">
-        <v>28.65512277858621</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="G43" t="n">
-        <v>28.65512277858621</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="H43" t="n">
-        <v>28.65512277858621</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="I43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="J43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="K43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="L43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="M43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="N43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="O43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="P43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="R43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="T43" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146716</v>
+        <v>78.53404842146729</v>
       </c>
       <c r="V43" t="n">
-        <v>70.96092651556356</v>
+        <v>70.96092651556363</v>
       </c>
       <c r="W43" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X43" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594846</v>
+        <v>827.5379026594853</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190563</v>
+        <v>705.6867520190569</v>
       </c>
       <c r="D44" t="n">
-        <v>594.5324197122893</v>
+        <v>594.5324197122898</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140283</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244041</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G44" t="n">
         <v>120.0263557085881</v>
       </c>
       <c r="H44" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355121</v>
       </c>
       <c r="J44" t="n">
-        <v>206.3742031435734</v>
+        <v>177.6601314239651</v>
       </c>
       <c r="K44" t="n">
-        <v>560.9813475285778</v>
+        <v>255.7872423313117</v>
       </c>
       <c r="L44" t="n">
-        <v>636.5376617419972</v>
+        <v>507.3715203307171</v>
       </c>
       <c r="M44" t="n">
-        <v>991.1448061270015</v>
+        <v>595.8184415840323</v>
       </c>
       <c r="N44" t="n">
-        <v>1081.717749712773</v>
+        <v>686.3913851698038</v>
       </c>
       <c r="O44" t="n">
-        <v>1167.405016007249</v>
+        <v>772.0786514642791</v>
       </c>
       <c r="P44" t="n">
-        <v>1241.523116879621</v>
+        <v>1126.685795849284</v>
       </c>
       <c r="Q44" t="n">
-        <v>1309.326332401971</v>
+        <v>1244.26707672772</v>
       </c>
       <c r="R44" t="n">
-        <v>1364.669194558243</v>
+        <v>1364.669194558244</v>
       </c>
       <c r="S44" t="n">
-        <v>1409.574980255827</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T44" t="n">
         <v>1432.756138929311</v>
       </c>
       <c r="U44" t="n">
-        <v>1426.017544074266</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V44" t="n">
-        <v>1342.066023030679</v>
+        <v>1342.06602303068</v>
       </c>
       <c r="W44" t="n">
-        <v>1236.408734060548</v>
+        <v>1236.408734060549</v>
       </c>
       <c r="X44" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236232</v>
+        <v>967.0263764236239</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="C45" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="D45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="E45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="F45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="G45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="H45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="J45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="K45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="L45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="M45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="N45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="O45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="P45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="R45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="S45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="T45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="U45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680457</v>
+        <v>35.78111320680464</v>
       </c>
       <c r="W45" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X45" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680464</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C46" t="n">
-        <v>28.65512277858621</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65512277858621</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="E46" t="n">
-        <v>28.65512277858621</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="F46" t="n">
-        <v>28.65512277858621</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="G46" t="n">
-        <v>28.65512277858621</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="H46" t="n">
-        <v>28.65512277858621</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="I46" t="n">
-        <v>28.65512277858621</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="J46" t="n">
-        <v>120.6232601659385</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="K46" t="n">
-        <v>120.6232601659385</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="L46" t="n">
-        <v>120.6232601659385</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="M46" t="n">
-        <v>120.6232601659385</v>
+        <v>105.2746200015582</v>
       </c>
       <c r="N46" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="O46" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="P46" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="R46" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="S46" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="T46" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659387</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146716</v>
+        <v>78.53404842146729</v>
       </c>
       <c r="V46" t="n">
-        <v>70.96092651556356</v>
+        <v>70.96092651556363</v>
       </c>
       <c r="W46" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="X46" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.65512277858621</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>14.99544765443569</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>95.47561492503517</v>
       </c>
       <c r="N11" t="n">
-        <v>196.0653735330926</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>28.0576087566491</v>
+        <v>28.057608756649</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>34.43628082737855</v>
       </c>
       <c r="R11" t="n">
-        <v>47.02249634867039</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>24.0081036708165</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>26.60486800811674</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>28.18517217468377</v>
       </c>
       <c r="N14" t="n">
         <v>153.1524308331737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>192.6064803577589</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>28.057608756649</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.5759552654655</v>
+        <v>34.43628082737857</v>
       </c>
       <c r="R14" t="n">
-        <v>47.02249634867039</v>
+        <v>47.02249634867029</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>165.7239789931989</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>10.26026004204942</v>
+        <v>362.5200862270198</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>144.8778413845392</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10036,10 +10036,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>68.48263098630588</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>168.3207433304991</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>364.6675835325314</v>
       </c>
       <c r="N29" t="n">
-        <v>278.9460153593808</v>
+        <v>362.5200862270198</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>106.5082535104757</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>58.09735883750677</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.4878631656135</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,19 +10273,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>139.7643782613471</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>287.9079785075611</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>31.03392672516021</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918123</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439827</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734515</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10504,25 +10504,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>145.1052582139142</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.4611728332998</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>165.7239789931989</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>319.0336884294728</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>283.3222661743756</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>114.5411443216188</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>275.4370188596388</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>284.4986700410461</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>41.57566100811418</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>293.5387116872135</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>388.2333815276381</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.00411284808915</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>304.3803826956413</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>177.8060240262486</v>
       </c>
       <c r="M44" t="n">
-        <v>268.8487102340295</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11455,16 +11455,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022014</v>
+        <v>113.8518484439378</v>
       </c>
       <c r="O46" t="n">
         <v>111.3587261364776</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.6144048339939</v>
+        <v>168.6144048339938</v>
       </c>
       <c r="C11" t="n">
-        <v>151.1534549415209</v>
+        <v>151.1534549415208</v>
       </c>
       <c r="D11" t="n">
-        <v>140.5636047911963</v>
+        <v>140.5636047911962</v>
       </c>
       <c r="E11" t="n">
-        <v>167.8109332427751</v>
+        <v>167.810933242775</v>
       </c>
       <c r="F11" t="n">
         <v>192.7566089122247</v>
       </c>
       <c r="G11" t="n">
-        <v>128.3523471240505</v>
+        <v>200.7559086311548</v>
       </c>
       <c r="H11" t="n">
-        <v>48.57477490109426</v>
+        <v>120.9783364081985</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105504016099175</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399033</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>41.2292601335439</v>
+        <v>87.05178937918105</v>
       </c>
       <c r="W11" t="n">
-        <v>135.1215318879263</v>
+        <v>62.71797038082201</v>
       </c>
       <c r="X11" t="n">
-        <v>98.94411088962414</v>
+        <v>83.20810234187803</v>
       </c>
       <c r="Y11" t="n">
-        <v>172.1185018265669</v>
+        <v>99.71494031946258</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6144048339939</v>
+        <v>168.6144048339938</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415209</v>
+        <v>151.1534549415208</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911963</v>
+        <v>140.5636047911962</v>
       </c>
       <c r="E14" t="n">
-        <v>167.8109332427751</v>
+        <v>167.810933242775</v>
       </c>
       <c r="F14" t="n">
         <v>192.7566089122247</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099231</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.19202471399027</v>
       </c>
       <c r="V14" t="n">
         <v>113.6328216406482</v>
       </c>
       <c r="W14" t="n">
-        <v>62.71797038082201</v>
+        <v>135.1215318879263</v>
       </c>
       <c r="X14" t="n">
-        <v>129.0306315875152</v>
+        <v>83.20810234187803</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.1185018265669</v>
+        <v>115.4509488672086</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814972.4034082342</v>
+        <v>814972.403408234</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>969051.3968998371</v>
+        <v>969051.3968998373</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>969051.3968998373</v>
+        <v>969051.3968998371</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>969051.3968998373</v>
+        <v>969051.3968998372</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981488</v>
       </c>
       <c r="E2" t="n">
-        <v>439400.1361448015</v>
+        <v>439400.1361448012</v>
       </c>
       <c r="F2" t="n">
-        <v>439400.1361448014</v>
+        <v>439400.1361448012</v>
       </c>
       <c r="G2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="H2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="I2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="J2" t="n">
+        <v>513151.1061651774</v>
+      </c>
+      <c r="K2" t="n">
+        <v>513151.1061651778</v>
+      </c>
+      <c r="L2" t="n">
         <v>513151.1061651777</v>
       </c>
-      <c r="K2" t="n">
-        <v>513151.1061651774</v>
-      </c>
-      <c r="L2" t="n">
-        <v>513151.1061651774</v>
-      </c>
       <c r="M2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="N2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="P2" t="n">
         <v>513151.1061651768</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928508</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928508</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311802</v>
+        <v>18732.249433118</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361792</v>
+        <v>70000.14188361791</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,28 +26427,28 @@
         <v>366684.410336468</v>
       </c>
       <c r="F4" t="n">
-        <v>366684.410336468</v>
+        <v>366684.4103364681</v>
       </c>
       <c r="G4" t="n">
-        <v>431842.1671902813</v>
+        <v>431842.1671902814</v>
       </c>
       <c r="H4" t="n">
-        <v>431842.1671902813</v>
+        <v>431842.1671902814</v>
       </c>
       <c r="I4" t="n">
-        <v>431842.1671902813</v>
+        <v>431842.1671902814</v>
       </c>
       <c r="J4" t="n">
+        <v>440899.9009590467</v>
+      </c>
+      <c r="K4" t="n">
         <v>440899.9009590468</v>
       </c>
-      <c r="K4" t="n">
-        <v>440899.9009590467</v>
-      </c>
       <c r="L4" t="n">
-        <v>440899.9009590467</v>
+        <v>440899.9009590468</v>
       </c>
       <c r="M4" t="n">
-        <v>436970.659685421</v>
+        <v>436970.6596854209</v>
       </c>
       <c r="N4" t="n">
         <v>436970.659685421</v>
@@ -26457,7 +26457,7 @@
         <v>436970.6596854209</v>
       </c>
       <c r="P4" t="n">
-        <v>436970.6596854209</v>
+        <v>436970.659685421</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>24720.58373795486</v>
       </c>
       <c r="G5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="H5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="J5" t="n">
         <v>47095.82966680983</v>
@@ -26503,7 +26503,7 @@
         <v>44662.19497416889</v>
       </c>
       <c r="N5" t="n">
-        <v>44662.19497416889</v>
+        <v>44662.1949741689</v>
       </c>
       <c r="O5" t="n">
         <v>44662.19497416889</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10804.15176641776</v>
+        <v>10799.73818854965</v>
       </c>
       <c r="C6" t="n">
-        <v>10804.1517664177</v>
+        <v>10799.73818854965</v>
       </c>
       <c r="D6" t="n">
-        <v>10804.15176641782</v>
+        <v>10799.73818854947</v>
       </c>
       <c r="E6" t="n">
-        <v>-230331.3225965005</v>
+        <v>-230626.3264765822</v>
       </c>
       <c r="F6" t="n">
-        <v>47995.14207037851</v>
+        <v>47700.13819029678</v>
       </c>
       <c r="G6" t="n">
-        <v>-61633.56269784012</v>
+        <v>-61633.5626978403</v>
       </c>
       <c r="H6" t="n">
-        <v>45346.24809501056</v>
+        <v>45346.24809501032</v>
       </c>
       <c r="I6" t="n">
-        <v>45346.24809501062</v>
+        <v>45346.24809501044</v>
       </c>
       <c r="J6" t="n">
-        <v>-138562.778147802</v>
+        <v>-138562.7781478023</v>
       </c>
       <c r="K6" t="n">
-        <v>25155.37553932086</v>
+        <v>25155.37553932115</v>
       </c>
       <c r="L6" t="n">
-        <v>-81824.43525352981</v>
+        <v>-81824.43525352975</v>
       </c>
       <c r="M6" t="n">
-        <v>12786.00207246876</v>
+        <v>12786.00207246917</v>
       </c>
       <c r="N6" t="n">
-        <v>31518.25150558674</v>
+        <v>31518.25150558696</v>
       </c>
       <c r="O6" t="n">
-        <v>-38481.89037803088</v>
+        <v>-38481.8903780307</v>
       </c>
       <c r="P6" t="n">
-        <v>31518.25150558703</v>
+        <v>31518.25150558692</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>214.1194368294867</v>
       </c>
       <c r="G2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="I2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="J2" t="n">
         <v>221.2249408455859</v>
@@ -26719,7 +26719,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="N2" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O2" t="n">
         <v>244.6402526369834</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="F3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="G3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="H3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="I3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="J3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="K3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="L3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="M3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="N3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="O3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="P3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="F4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="G4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="H4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="J4" t="n">
         <v>430.5925962394319</v>
@@ -26823,13 +26823,13 @@
         <v>358.1890347323276</v>
       </c>
       <c r="N4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="O4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="P4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323279</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452249</v>
+        <v>87.50017735452244</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139753</v>
+        <v>23.4153117913975</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452241</v>
+        <v>87.50017735452238</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452249</v>
+        <v>87.50017735452244</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,19 +28111,19 @@
         <v>214.1194368294867</v>
       </c>
       <c r="J11" t="n">
-        <v>144.7715381416158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>165.7239789931989</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>168.3207433304991</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="M11" t="n">
-        <v>155.2999281386853</v>
+        <v>59.82431321365013</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="O11" t="n">
         <v>158.0874584001396</v>
@@ -28132,13 +28132,13 @@
         <v>214.1194368294867</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.84680625466128</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="R11" t="n">
-        <v>214.1194368294867</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S11" t="n">
-        <v>214.1194368294867</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T11" t="n">
         <v>214.1194368294867</v>
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>185.231008623361</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -28196,16 +28196,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P12" t="n">
         <v>90.30752936669649</v>
@@ -28220,7 +28220,7 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T12" t="n">
-        <v>214.1194368294867</v>
+        <v>212.6655783345986</v>
       </c>
       <c r="U12" t="n">
         <v>214.1194368294867</v>
@@ -28232,7 +28232,7 @@
         <v>214.1194368294867</v>
       </c>
       <c r="X12" t="n">
-        <v>214.1194368294867</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>214.1194368294867</v>
@@ -28245,22 +28245,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214.1194368294867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>191.8230224384609</v>
       </c>
       <c r="E13" t="n">
+        <v>146.4339626465692</v>
+      </c>
+      <c r="F13" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="F13" t="n">
-        <v>201.6742262524457</v>
-      </c>
       <c r="G13" t="n">
-        <v>167.7992659963099</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="H13" t="n">
         <v>160.5226664330617</v>
@@ -28348,28 +28348,28 @@
         <v>214.1194368294867</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K14" t="n">
+        <v>165.7239789931989</v>
+      </c>
+      <c r="L14" t="n">
+        <v>168.3207433304991</v>
+      </c>
+      <c r="M14" t="n">
+        <v>127.1147559640015</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="L14" t="n">
+      <c r="Q14" t="n">
         <v>214.1194368294867</v>
-      </c>
-      <c r="M14" t="n">
-        <v>155.2999281386853</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>168.2814033273011</v>
-      </c>
-      <c r="P14" t="n">
-        <v>169.7734840790315</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>112.5762008842955</v>
       </c>
       <c r="R14" t="n">
         <v>214.1194368294867</v>
@@ -28424,7 +28424,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I15" t="n">
-        <v>91.64914299614303</v>
+        <v>161.0947072252434</v>
       </c>
       <c r="J15" t="n">
         <v>105.2328625520064</v>
@@ -28433,16 +28433,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O15" t="n">
-        <v>157.6342306164457</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P15" t="n">
         <v>90.30752936669649</v>
@@ -28488,7 +28488,7 @@
         <v>214.1194368294867</v>
       </c>
       <c r="D16" t="n">
-        <v>214.1194368294867</v>
+        <v>179.0401553203727</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28500,7 +28500,7 @@
         <v>214.1194368294867</v>
       </c>
       <c r="H16" t="n">
-        <v>160.5226664330617</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="I16" t="n">
         <v>149.6851312728186</v>
@@ -28527,7 +28527,7 @@
         <v>114.5411443216188</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.9691107099123</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R16" t="n">
         <v>214.1194368294867</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="C17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="D17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="E17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="F17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="G17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="I17" t="n">
         <v>193.998857389544</v>
@@ -28606,10 +28606,10 @@
         <v>169.7734840790315</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R17" t="n">
-        <v>225.3781678203476</v>
+        <v>225.3781678203473</v>
       </c>
       <c r="S17" t="n">
         <v>271.6844346515783</v>
@@ -28618,19 +28618,19 @@
         <v>293.6285023526902</v>
       </c>
       <c r="U17" t="n">
-        <v>323.7150230505814</v>
+        <v>323.7150230505813</v>
       </c>
       <c r="V17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="W17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="X17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
     </row>
     <row r="18">
@@ -28670,16 +28670,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P18" t="n">
         <v>90.30752936669649</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="C20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="D20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="E20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="F20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="G20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="I20" t="n">
         <v>193.998857389544</v>
@@ -28828,46 +28828,46 @@
         <v>165.7239789931989</v>
       </c>
       <c r="L20" t="n">
-        <v>240.7243048376034</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M20" t="n">
-        <v>227.7034896457896</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N20" t="n">
         <v>153.1524308331737</v>
       </c>
       <c r="O20" t="n">
-        <v>158.0874584001396</v>
+        <v>230.4910199072439</v>
       </c>
       <c r="P20" t="n">
         <v>169.7734840790315</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R20" t="n">
-        <v>225.3781678203476</v>
+        <v>245.4701096707626</v>
       </c>
       <c r="S20" t="n">
         <v>199.280873144474</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2249408455859</v>
+        <v>293.6285023526902</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7150230505814</v>
+        <v>323.7150230505813</v>
       </c>
       <c r="V20" t="n">
-        <v>347.8442003205501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="X20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
     </row>
     <row r="21">
@@ -28907,16 +28907,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P21" t="n">
         <v>90.30752936669649</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="C23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="D23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="E23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="F23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="G23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="I23" t="n">
-        <v>193.998857389544</v>
+        <v>266.4024188966483</v>
       </c>
       <c r="J23" t="n">
         <v>144.7715381416158</v>
@@ -29065,46 +29065,46 @@
         <v>165.7239789931989</v>
       </c>
       <c r="L23" t="n">
-        <v>240.7243048376034</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7034896457896</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N23" t="n">
         <v>225.555992340278</v>
       </c>
       <c r="O23" t="n">
-        <v>194.7272545494344</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P23" t="n">
         <v>169.7734840790315</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R23" t="n">
         <v>188.7383716710528</v>
       </c>
       <c r="S23" t="n">
-        <v>199.280873144474</v>
+        <v>271.6844346515783</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2249408455859</v>
+        <v>257.8647369948804</v>
       </c>
       <c r="U23" t="n">
         <v>251.311461543477</v>
       </c>
       <c r="V23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="W23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="X23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.8442003205502</v>
       </c>
     </row>
     <row r="24">
@@ -29144,16 +29144,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P24" t="n">
         <v>90.30752936669649</v>
@@ -29299,10 +29299,10 @@
         <v>221.2249408455859</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L26" t="n">
-        <v>65.10062908318993</v>
+        <v>150.6499562797684</v>
       </c>
       <c r="M26" t="n">
         <v>221.2249408455859</v>
@@ -29311,13 +29311,13 @@
         <v>221.2249408455859</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="P26" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>221.2249408455859</v>
@@ -29360,7 +29360,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>205.3413210968087</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -29381,16 +29381,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P27" t="n">
         <v>90.30752936669649</v>
@@ -29399,7 +29399,7 @@
         <v>110.7916225242058</v>
       </c>
       <c r="R27" t="n">
-        <v>131.4816003936965</v>
+        <v>179.1778410351043</v>
       </c>
       <c r="S27" t="n">
         <v>167.4356349622666</v>
@@ -29439,7 +29439,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>189.3583061715507</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -29448,10 +29448,10 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H28" t="n">
-        <v>221.2249408455859</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I28" t="n">
-        <v>221.2249408455859</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J28" t="n">
         <v>113.4412867354731</v>
@@ -29460,10 +29460,10 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L28" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>98.34817151022014</v>
@@ -29472,7 +29472,7 @@
         <v>111.3587261364776</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216188</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q28" t="n">
         <v>135.4516218226007</v>
@@ -29536,7 +29536,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="K29" t="n">
-        <v>99.45573525001582</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="O29" t="n">
-        <v>207.8798733768261</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="P29" t="n">
         <v>221.2249408455859</v>
@@ -29557,10 +29557,10 @@
         <v>221.2249408455859</v>
       </c>
       <c r="R29" t="n">
-        <v>188.7383716710528</v>
+        <v>130.641012833546</v>
       </c>
       <c r="S29" t="n">
-        <v>221.2249408455859</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T29" t="n">
         <v>221.2249408455859</v>
@@ -29609,7 +29609,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I30" t="n">
-        <v>91.64914299614303</v>
+        <v>81.52339584755811</v>
       </c>
       <c r="J30" t="n">
         <v>105.2328625520064</v>
@@ -29618,25 +29618,25 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439827</v>
+        <v>131.8892679758061</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P30" t="n">
         <v>90.30752936669649</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R30" t="n">
-        <v>131.4816003936965</v>
+        <v>85.9599305823757</v>
       </c>
       <c r="S30" t="n">
         <v>167.4356349622666</v>
@@ -29697,22 +29697,22 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L31" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>32.06106427298648</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>114.5411443216188</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.10866344484918</v>
+        <v>70.1086634448492</v>
       </c>
       <c r="R31" t="n">
         <v>168.6732614754589</v>
@@ -29767,34 +29767,34 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I32" t="n">
-        <v>193.998857389544</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J32" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="L32" t="n">
+        <v>181.2521250194806</v>
+      </c>
+      <c r="M32" t="n">
+        <v>155.2999281386853</v>
+      </c>
+      <c r="N32" t="n">
+        <v>103.1017423205412</v>
+      </c>
+      <c r="O32" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="N32" t="n">
-        <v>138.9483573836359</v>
-      </c>
-      <c r="O32" t="n">
-        <v>207.8798733768262</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="R32" t="n">
-        <v>157.7044449458926</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S32" t="n">
         <v>221.2249408455859</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>214.2294242912751</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -29852,19 +29852,19 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K33" t="n">
-        <v>100.9154559462058</v>
+        <v>148.6116965876136</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N33" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P33" t="n">
         <v>90.30752936669649</v>
@@ -29928,25 +29928,25 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J34" t="n">
-        <v>113.4412867354731</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K34" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>101.6968821760314</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O34" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216188</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>135.4516218226007</v>
@@ -30007,13 +30007,13 @@
         <v>244.6402526369834</v>
       </c>
       <c r="J35" t="n">
+        <v>144.7715381416158</v>
+      </c>
+      <c r="K35" t="n">
         <v>244.6402526369834</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>244.6402526369834</v>
+        <v>207.4760896333539</v>
       </c>
       <c r="M35" t="n">
         <v>244.6402526369834</v>
@@ -30022,13 +30022,13 @@
         <v>244.6402526369834</v>
       </c>
       <c r="O35" t="n">
-        <v>244.6402526369834</v>
+        <v>46.64985395451964</v>
       </c>
       <c r="P35" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.867260910867</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="R35" t="n">
         <v>244.6402526369834</v>
@@ -30074,7 +30074,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>152.2671825228974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.114842254054</v>
@@ -30092,19 +30092,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669649</v>
+        <v>97.50549949620998</v>
       </c>
       <c r="Q36" t="n">
         <v>110.7916225242058</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>227.7428921211754</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30159,7 +30159,7 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H37" t="n">
-        <v>160.5226664330617</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I37" t="n">
         <v>149.6851312728186</v>
@@ -30171,7 +30171,7 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M37" t="n">
         <v>108.8738430064009</v>
@@ -30183,7 +30183,7 @@
         <v>111.3587261364776</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>123.32066658977</v>
       </c>
       <c r="Q37" t="n">
         <v>135.4516218226007</v>
@@ -30207,10 +30207,10 @@
         <v>244.6402526369834</v>
       </c>
       <c r="X37" t="n">
-        <v>244.6402526369834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.6402526369834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J38" t="n">
-        <v>244.6402526369835</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K38" t="n">
-        <v>188.792247480937</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O38" t="n">
-        <v>244.6402526369835</v>
+        <v>101.0989941719185</v>
       </c>
       <c r="P38" t="n">
-        <v>244.6402526369835</v>
+        <v>243.4638487703133</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="R38" t="n">
-        <v>244.6402526369835</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>179.9064691178291</v>
+        <v>179.9064691178292</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30329,16 +30329,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P39" t="n">
         <v>90.30752936669649</v>
@@ -30362,7 +30362,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>239.3310711186422</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30426,7 +30426,7 @@
         <v>135.4516218226007</v>
       </c>
       <c r="R40" t="n">
-        <v>244.6402526369835</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S40" t="n">
         <v>220.675556989342</v>
@@ -30435,16 +30435,16 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V40" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W40" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X40" t="n">
-        <v>242.6397726995853</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30487,19 +30487,19 @@
         <v>244.6402526369834</v>
       </c>
       <c r="L41" t="n">
+        <v>229.123997650462</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>244.6402526369834</v>
-      </c>
-      <c r="M41" t="n">
-        <v>63.97542937818041</v>
-      </c>
-      <c r="N41" t="n">
-        <v>123.1080840378633</v>
       </c>
       <c r="O41" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="P41" t="n">
-        <v>244.6402526369834</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q41" t="n">
         <v>244.6402526369834</v>
@@ -30560,22 +30560,22 @@
         <v>91.64914299614303</v>
       </c>
       <c r="J42" t="n">
-        <v>105.2328625520064</v>
+        <v>112.43083268152</v>
       </c>
       <c r="K42" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P42" t="n">
         <v>90.30752936669649</v>
@@ -30590,7 +30590,7 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T42" t="n">
-        <v>206.4409784668135</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U42" t="n">
         <v>225.9263376790566</v>
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>238.3181564950044</v>
       </c>
       <c r="G43" t="n">
         <v>167.7992659963099</v>
@@ -30636,7 +30636,7 @@
         <v>160.5226664330617</v>
       </c>
       <c r="I43" t="n">
-        <v>242.5822397448916</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
         <v>113.4412867354731</v>
@@ -30648,7 +30648,7 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N43" t="n">
         <v>98.34817151022014</v>
@@ -30721,7 +30721,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="K44" t="n">
-        <v>219.5326310298852</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L44" t="n">
         <v>244.6402526369834</v>
@@ -30736,10 +30736,10 @@
         <v>244.6402526369834</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369834</v>
+        <v>206.1638106398767</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6402526369834</v>
+        <v>82.60613607413531</v>
       </c>
       <c r="R44" t="n">
         <v>244.6402526369834</v>
@@ -30779,7 +30779,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>154.6430356941522</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -30797,28 +30797,28 @@
         <v>91.64914299614303</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K45" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918123</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439827</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018491</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734515</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P45" t="n">
         <v>90.30752936669649</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R45" t="n">
         <v>131.4816003936965</v>
@@ -30842,7 +30842,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>212.8806659068179</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30876,16 +30876,16 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J46" t="n">
-        <v>206.3383952075461</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J11" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M11" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T11" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H12" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R12" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H13" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J13" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K13" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L13" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P13" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q13" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R13" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S13" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U13" t="n">
         <v>0.01045709248084586</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J14" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M14" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T14" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H15" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R15" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H16" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J16" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K16" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L16" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P16" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q16" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R16" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S16" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U16" t="n">
         <v>0.01045709248084586</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J17" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M17" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T17" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H18" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R18" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H19" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J19" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K19" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L19" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P19" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q19" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R19" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S19" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U19" t="n">
         <v>0.01045709248084586</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J20" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M20" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T20" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H21" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R21" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H22" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J22" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K22" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L22" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P22" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q22" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R22" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S22" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U22" t="n">
         <v>0.01045709248084586</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J23" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M23" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T23" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H24" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R24" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H25" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J25" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K25" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L25" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P25" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q25" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R25" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S25" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U25" t="n">
         <v>0.01045709248084586</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I26" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J26" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M26" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T26" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H27" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R27" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H28" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J28" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K28" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L28" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P28" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q28" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R28" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S28" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U28" t="n">
         <v>0.01045709248084586</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J29" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M29" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T29" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H30" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R30" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H31" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J31" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K31" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L31" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P31" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q31" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R31" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S31" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U31" t="n">
         <v>0.01045709248084586</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I32" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J32" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M32" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T32" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H33" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R33" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H34" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J34" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K34" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L34" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P34" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q34" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R34" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S34" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U34" t="n">
         <v>0.01045709248084586</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J35" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M35" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T35" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H36" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R36" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H37" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J37" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K37" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L37" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P37" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q37" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R37" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S37" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U37" t="n">
         <v>0.01045709248084586</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I38" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J38" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M38" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T38" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H39" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R39" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H40" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J40" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K40" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L40" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P40" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q40" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R40" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U40" t="n">
         <v>0.01045709248084586</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I41" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M41" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T41" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H42" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R42" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H43" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J43" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K43" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L43" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P43" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q43" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R43" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S43" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U43" t="n">
         <v>0.01045709248084586</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935321</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081886</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I44" t="n">
-        <v>16.47703218086191</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27436638507045</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178167</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948813</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M44" t="n">
-        <v>75.04630508858746</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341722</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154716</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623807</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468844</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771371</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T44" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948256</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H45" t="n">
         <v>2.208518201591473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856977</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815316</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762006</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314839</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709929</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763377</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181573</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R45" t="n">
         <v>14.19790357026744</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575215999</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1917133621488406</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H46" t="n">
         <v>1.704506074377875</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439682</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J46" t="n">
         <v>13.55413470392303</v>
       </c>
       <c r="K46" t="n">
-        <v>22.27360698420166</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L46" t="n">
-        <v>28.50254840529218</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120417</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501306</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536523</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P46" t="n">
-        <v>23.18685972752886</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q46" t="n">
         <v>16.05337980684519</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620129901710596</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S46" t="n">
-        <v>3.341041047630249</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995916</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U46" t="n">
         <v>0.01045709248084586</v>
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.12057943994269</v>
+        <v>20.12057943994274</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -35413,28 +35413,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.79414115342329</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>42.91294269991887</v>
+        <v>60.96700599631302</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.00964076480491</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="R11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.83856368501272</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35462,13 +35462,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>47.5862531796194</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>37.78594305872231</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>14.87642849218668</v>
+        <v>13.42256999729858</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35528,10 +35528,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>8.346451626009213</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.436741052182327</v>
+        <v>8.436741052182384</v>
       </c>
     </row>
     <row r="13">
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.28745664754939</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.20754942024854</v>
       </c>
       <c r="E13" t="n">
-        <v>67.68547418291752</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>56.25317822951441</v>
+        <v>68.6983888065555</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>46.32017083317682</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.43430555666808</v>
+        <v>64.43430555666814</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35641,16 +35641,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.12057943994269</v>
+        <v>20.12057943994274</v>
       </c>
       <c r="J14" t="n">
-        <v>24.32507703045793</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,19 +35659,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>10.19394492716154</v>
+        <v>34.5190219576193</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="R14" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501272</v>
+        <v>14.83856368501277</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>69.44556422910037</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>69.44556422910053</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35781,10 +35781,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.87261573085885</v>
+        <v>46.87261573085891</v>
       </c>
       <c r="D16" t="n">
-        <v>65.50396381127433</v>
+        <v>30.42468230216038</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,10 +35793,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>46.32017083317677</v>
+        <v>46.32017083317682</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>53.59677039642504</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35823,10 +35823,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.51748888731165</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.4461753540278</v>
+        <v>45.44617535402785</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.74642708286484</v>
+        <v>12.74642708286495</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>36.63979614929482</v>
+        <v>36.63979614929454</v>
       </c>
       <c r="S17" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="T17" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="U17" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="V17" t="n">
-        <v>20.0919418504152</v>
+        <v>20.09194185041531</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,7 +36112,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.74642708286484</v>
+        <v>12.74642708286495</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>36.63979614929484</v>
+        <v>56.73173799970986</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="U20" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="V20" t="n">
-        <v>20.0919418504152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,10 +36349,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.74642708286484</v>
+        <v>12.74642708286495</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="O23" t="n">
-        <v>36.63979614929484</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>36.63979614929455</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>20.0919418504152</v>
+        <v>20.09194185041531</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604191</v>
+        <v>27.2260834560419</v>
       </c>
       <c r="J26" t="n">
-        <v>245.5500178760439</v>
+        <v>245.5500178760438</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>55.50096185238701</v>
       </c>
       <c r="L26" t="n">
-        <v>314.4411003031412</v>
+        <v>399.9904274997198</v>
       </c>
       <c r="M26" t="n">
-        <v>65.92501270690063</v>
+        <v>65.9250127069006</v>
       </c>
       <c r="N26" t="n">
-        <v>78.33277005446163</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="O26" t="n">
-        <v>222.7127228626058</v>
+        <v>208.0153238299855</v>
       </c>
       <c r="P26" t="n">
-        <v>373.2501649380371</v>
+        <v>152.0252240924511</v>
       </c>
       <c r="Q26" t="n">
-        <v>257.3877753557296</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>98.20298904751559</v>
+        <v>98.20298904751557</v>
       </c>
       <c r="S26" t="n">
         <v>21.94406770111193</v>
@@ -36656,46 +36656,46 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>47.6962406414078</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>42.92434352498154</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,10 +36744,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>60.7022744125242</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.5398095727673</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>175.166427510273</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604193</v>
+        <v>27.2260834560419</v>
       </c>
       <c r="J29" t="n">
-        <v>245.5500178760439</v>
+        <v>245.5500178760438</v>
       </c>
       <c r="K29" t="n">
-        <v>257.8771688279817</v>
+        <v>55.50096185238701</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>249.3404712199513</v>
       </c>
       <c r="M29" t="n">
-        <v>65.92501270690066</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N29" t="n">
-        <v>347.018525371793</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="O29" t="n">
-        <v>430.5925962394319</v>
+        <v>63.13748244544631</v>
       </c>
       <c r="P29" t="n">
-        <v>51.45145676655446</v>
+        <v>157.9597102770301</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.3877753557296</v>
+        <v>45.07278469582484</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>21.94406770111196</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>33.38225038540102</v>
       </c>
       <c r="M31" t="n">
-        <v>101.6968821760312</v>
+        <v>69.63581790304474</v>
       </c>
       <c r="N31" t="n">
-        <v>73.46954533424164</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>51.68294022940489</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>20.46541899242234</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.22608345604193</v>
       </c>
       <c r="J32" t="n">
-        <v>245.5500178760439</v>
+        <v>24.32507703045792</v>
       </c>
       <c r="K32" t="n">
-        <v>55.50096185238703</v>
+        <v>343.4089403599481</v>
       </c>
       <c r="L32" t="n">
-        <v>52.90419751508679</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M32" t="n">
-        <v>65.92501270690063</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>423.1428509624463</v>
+        <v>387.2962358993516</v>
       </c>
       <c r="O32" t="n">
-        <v>430.5925962394319</v>
+        <v>63.13748244544634</v>
       </c>
       <c r="P32" t="n">
-        <v>152.0252240924512</v>
+        <v>51.45145676655444</v>
       </c>
       <c r="Q32" t="n">
         <v>257.3877753557296</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>98.2029890475156</v>
       </c>
       <c r="S32" t="n">
-        <v>21.94406770111193</v>
+        <v>21.94406770111196</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37121,7 +37121,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>141.4198954328362</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>175.166427510273</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>33.74653207743666</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>50.64139524743943</v>
       </c>
       <c r="J35" t="n">
-        <v>218.3298873286674</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>78.91627364378454</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648432</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="M35" t="n">
-        <v>89.34032449829816</v>
+        <v>89.34032449829813</v>
       </c>
       <c r="N35" t="n">
-        <v>91.48782180380974</v>
+        <v>91.48782180380971</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684387</v>
+        <v>269.3625768171254</v>
       </c>
       <c r="P35" t="n">
-        <v>358.1890347323276</v>
+        <v>74.86676855795194</v>
       </c>
       <c r="Q35" t="n">
-        <v>257.0300954210107</v>
+        <v>280.803087147127</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6183008389131</v>
+        <v>55.90188096593066</v>
       </c>
       <c r="S35" t="n">
         <v>45.35937949250946</v>
@@ -37370,37 +37370,37 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>7.197970129513493</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.91091193923808</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>84.11758620392173</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>8.779522268151288</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37503,10 +37503,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>18.93059724794628</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.05559928488864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.64139524743952</v>
+        <v>50.64139524743943</v>
       </c>
       <c r="J38" t="n">
-        <v>99.86871449536768</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>347.2136810589028</v>
+        <v>78.91627364378454</v>
       </c>
       <c r="L38" t="n">
-        <v>76.31950930648441</v>
+        <v>76.31950930648429</v>
       </c>
       <c r="M38" t="n">
-        <v>89.34032449829824</v>
+        <v>89.34032449829813</v>
       </c>
       <c r="N38" t="n">
-        <v>122.2845880264651</v>
+        <v>91.48782180380971</v>
       </c>
       <c r="O38" t="n">
-        <v>86.55279423684395</v>
+        <v>323.8117170345242</v>
       </c>
       <c r="P38" t="n">
-        <v>74.86676855795204</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="Q38" t="n">
-        <v>280.8030871471271</v>
+        <v>280.803087147127</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6183008389132</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250955</v>
+        <v>45.35937949250946</v>
       </c>
       <c r="T38" t="n">
-        <v>23.4153117913976</v>
+        <v>23.41531179139751</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37598,7 +37598,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>7.1979701295134</v>
+        <v>7.197970129513489</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>92.89710847207299</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>75.96699116152463</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.93011731054812</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.64139524743943</v>
+        <v>50.64139524743937</v>
       </c>
       <c r="J41" t="n">
-        <v>141.4443755034818</v>
+        <v>268.9653296674413</v>
       </c>
       <c r="K41" t="n">
-        <v>78.91627364378456</v>
+        <v>78.91627364378448</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648432</v>
+        <v>354.3419660071764</v>
       </c>
       <c r="M41" t="n">
-        <v>358.1890347323276</v>
+        <v>294.2136053541472</v>
       </c>
       <c r="N41" t="n">
-        <v>358.1890347323276</v>
+        <v>91.48782180380965</v>
       </c>
       <c r="O41" t="n">
-        <v>86.55279423684387</v>
+        <v>86.55279423684378</v>
       </c>
       <c r="P41" t="n">
-        <v>74.86676855795196</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.48809648722239</v>
+        <v>68.48809648722232</v>
       </c>
       <c r="R41" t="n">
-        <v>55.90188096593067</v>
+        <v>55.9018809659306</v>
       </c>
       <c r="S41" t="n">
-        <v>45.35937949250946</v>
+        <v>45.3593794925094</v>
       </c>
       <c r="T41" t="n">
-        <v>23.41531179139751</v>
+        <v>23.41531179139746</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.197970129513547</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>7.197970129513493</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>92.89710847207316</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>92.897108472073</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.64139524743943</v>
+        <v>50.64139524743937</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8728273434567</v>
+        <v>99.86871449536753</v>
       </c>
       <c r="K44" t="n">
-        <v>358.1890347323276</v>
+        <v>78.91627364378448</v>
       </c>
       <c r="L44" t="n">
-        <v>76.31950930648432</v>
+        <v>254.1255333327328</v>
       </c>
       <c r="M44" t="n">
-        <v>358.1890347323276</v>
+        <v>89.34032449829807</v>
       </c>
       <c r="N44" t="n">
-        <v>91.48782180380974</v>
+        <v>91.48782180380965</v>
       </c>
       <c r="O44" t="n">
-        <v>86.55279423684387</v>
+        <v>86.55279423684378</v>
       </c>
       <c r="P44" t="n">
-        <v>74.86676855795196</v>
+        <v>358.1890347323279</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.48809648722239</v>
+        <v>118.7689705842789</v>
       </c>
       <c r="R44" t="n">
-        <v>55.90188096593067</v>
+        <v>121.618300838913</v>
       </c>
       <c r="S44" t="n">
-        <v>45.35937949250946</v>
+        <v>45.3593794925094</v>
       </c>
       <c r="T44" t="n">
-        <v>23.41531179139751</v>
+        <v>23.41531179139746</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38075,7 +38075,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>7.197970129513493</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -38138,7 +38138,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>7.197970129513547</v>
       </c>
     </row>
     <row r="46">
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>77.39343153835554</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.897108472073</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>15.50367693371762</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
